--- a/Quadern professor wps.xlsx
+++ b/Quadern professor wps.xlsx
@@ -160,10 +160,10 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="176" formatCode="0.00_ ;[Red]\-0.00\ "/>
-    <numFmt numFmtId="177" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* \-??\ &quot;€&quot;_-;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_-* #,##0\ &quot;€&quot;_-;\-* #,##0\ &quot;€&quot;_-;_-* &quot;-&quot;\ &quot;€&quot;_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-* #,##0\ &quot;€&quot;_-;\-* #,##0\ &quot;€&quot;_-;_-* &quot;-&quot;\ &quot;€&quot;_-;_-@_-"/>
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* \-??\ &quot;€&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -198,7 +198,113 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -212,90 +318,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -305,29 +327,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -348,13 +348,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -366,49 +450,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -420,115 +522,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -557,6 +557,45 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -574,8 +613,10 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -596,32 +637,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -634,47 +654,21 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -683,118 +677,124 @@
     <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1148,7 +1148,7 @@
   <dimension ref="D1:Q18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+      <selection activeCell="O21" sqref="O21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="15"/>
@@ -1242,7 +1242,7 @@
       </c>
       <c r="Q4" s="1"/>
     </row>
-    <row r="5" spans="4:17">
+    <row r="5" ht="15.75" spans="4:17">
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="3">
@@ -1318,20 +1318,42 @@
       <c r="E7" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5"/>
-      <c r="K7" s="5"/>
-      <c r="L7" s="5"/>
-      <c r="M7" s="5"/>
-      <c r="N7" s="5"/>
-      <c r="O7" s="5"/>
-      <c r="P7" s="5"/>
+      <c r="F7" s="5">
+        <v>5</v>
+      </c>
+      <c r="G7" s="5">
+        <v>6</v>
+      </c>
+      <c r="H7" s="5">
+        <v>7</v>
+      </c>
+      <c r="I7" s="5">
+        <v>4</v>
+      </c>
+      <c r="J7" s="5">
+        <v>6</v>
+      </c>
+      <c r="K7" s="5">
+        <v>6</v>
+      </c>
+      <c r="L7" s="5">
+        <v>8</v>
+      </c>
+      <c r="M7" s="5">
+        <v>6</v>
+      </c>
+      <c r="N7" s="5">
+        <v>4</v>
+      </c>
+      <c r="O7" s="5">
+        <v>7</v>
+      </c>
+      <c r="P7" s="5">
+        <v>4</v>
+      </c>
       <c r="Q7" s="6">
         <f t="shared" ref="Q7:Q18" si="0">((F7+G7+H7)/3)*F$5+((I7+J7+K7)/3)*I$5+((L7+M7+N7)/3)*L$5+((O7+P7)/2)*O$5</f>
-        <v>0</v>
+        <v>5.88333333333333</v>
       </c>
     </row>
     <row r="8" ht="15.75" spans="4:17">
@@ -1341,20 +1363,42 @@
       <c r="E8" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
-      <c r="K8" s="5"/>
-      <c r="L8" s="5"/>
-      <c r="M8" s="5"/>
-      <c r="N8" s="5"/>
-      <c r="O8" s="5"/>
-      <c r="P8" s="5"/>
+      <c r="F8" s="5">
+        <v>4</v>
+      </c>
+      <c r="G8" s="5">
+        <v>5</v>
+      </c>
+      <c r="H8" s="5">
+        <v>6</v>
+      </c>
+      <c r="I8" s="5">
+        <v>8</v>
+      </c>
+      <c r="J8" s="5">
+        <v>6</v>
+      </c>
+      <c r="K8" s="5">
+        <v>4</v>
+      </c>
+      <c r="L8" s="5">
+        <v>5</v>
+      </c>
+      <c r="M8" s="5">
+        <v>7</v>
+      </c>
+      <c r="N8" s="5">
+        <v>6</v>
+      </c>
+      <c r="O8" s="5">
+        <v>5</v>
+      </c>
+      <c r="P8" s="5">
+        <v>6</v>
+      </c>
       <c r="Q8" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>5.65</v>
       </c>
     </row>
     <row r="9" ht="15.75" spans="4:17">
@@ -1364,20 +1408,42 @@
       <c r="E9" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
-      <c r="K9" s="5"/>
-      <c r="L9" s="5"/>
-      <c r="M9" s="5"/>
-      <c r="N9" s="5"/>
-      <c r="O9" s="5"/>
-      <c r="P9" s="5"/>
+      <c r="F9" s="5">
+        <v>8</v>
+      </c>
+      <c r="G9" s="5">
+        <v>6</v>
+      </c>
+      <c r="H9" s="5">
+        <v>7</v>
+      </c>
+      <c r="I9" s="5">
+        <v>6</v>
+      </c>
+      <c r="J9" s="5">
+        <v>5</v>
+      </c>
+      <c r="K9" s="5">
+        <v>4</v>
+      </c>
+      <c r="L9" s="5">
+        <v>6</v>
+      </c>
+      <c r="M9" s="5">
+        <v>7</v>
+      </c>
+      <c r="N9" s="5">
+        <v>4</v>
+      </c>
+      <c r="O9" s="5">
+        <v>5</v>
+      </c>
+      <c r="P9" s="5">
+        <v>6</v>
+      </c>
       <c r="Q9" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>5.98333333333333</v>
       </c>
     </row>
     <row r="10" ht="15.75" spans="4:17">
@@ -1387,20 +1453,42 @@
       <c r="E10" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="5"/>
-      <c r="K10" s="5"/>
-      <c r="L10" s="5"/>
-      <c r="M10" s="5"/>
-      <c r="N10" s="5"/>
-      <c r="O10" s="5"/>
-      <c r="P10" s="5"/>
+      <c r="F10" s="5">
+        <v>5</v>
+      </c>
+      <c r="G10" s="5">
+        <v>6</v>
+      </c>
+      <c r="H10" s="5">
+        <v>8</v>
+      </c>
+      <c r="I10" s="5">
+        <v>5</v>
+      </c>
+      <c r="J10" s="5">
+        <v>7</v>
+      </c>
+      <c r="K10" s="5">
+        <v>6</v>
+      </c>
+      <c r="L10" s="5">
+        <v>4</v>
+      </c>
+      <c r="M10" s="5">
+        <v>5</v>
+      </c>
+      <c r="N10" s="5">
+        <v>7</v>
+      </c>
+      <c r="O10" s="5">
+        <v>6</v>
+      </c>
+      <c r="P10" s="5">
+        <v>7</v>
+      </c>
       <c r="Q10" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>5.81666666666667</v>
       </c>
     </row>
     <row r="11" ht="15.75" spans="4:17">
